--- a/Assets/doc/runningChildren策划.xlsx
+++ b/Assets/doc/runningChildren策划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-33360" yWindow="0" windowWidth="28400" windowHeight="18480" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24460" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="135">
   <si>
     <t>说明：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -397,10 +397,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>参考图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>基础属性</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -569,10 +565,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>参考图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>足球</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -661,11 +653,98 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TODO:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TODO:</t>
+    <t>美术风格参考图</t>
+  </si>
+  <si>
+    <t>美术风格参考图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排行榜列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排行榜列表:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>headIcon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ret</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ret</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>headIcon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bestDistance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参见下面列表定义</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -673,7 +752,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -824,8 +903,18 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -880,6 +969,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="25">
     <border>
@@ -1154,7 +1249,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="65">
+  <cellStyleXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1220,8 +1315,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1294,9 +1401,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1369,9 +1474,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="65">
+  <cellStyles count="77">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1404,6 +1512,12 @@
     <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1436,11 +1550,217 @@
     <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="812800" y="3251200"/>
+          <a:ext cx="8763000" cy="6578600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="9982200"/>
+          <a:ext cx="10160000" cy="7620000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647700" y="18656300"/>
+          <a:ext cx="8763000" cy="6578600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="736600" y="6045200"/>
+          <a:ext cx="8255000" cy="6667500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>370114</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="711200" y="12420600"/>
+          <a:ext cx="8155214" cy="5511800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1767,7 +2087,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:U29"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
@@ -1779,7 +2099,7 @@
     <row r="3" spans="2:21" ht="25">
       <c r="B3" s="1"/>
       <c r="C3" s="45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D3" s="46"/>
       <c r="E3" s="46"/>
@@ -2242,7 +2562,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C13"/>
+  <dimension ref="B2:C12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -2253,63 +2573,59 @@
   <sheetData>
     <row r="2" spans="2:3" ht="23">
       <c r="B2" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="19">
       <c r="C3" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="19">
       <c r="C4" s="32" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="19">
       <c r="C5" s="32" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="19">
       <c r="C6" s="32" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="19">
       <c r="C7" s="32" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="19">
       <c r="C8" s="32" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="19">
       <c r="C9" s="32" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="19">
       <c r="C10" s="32" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="23">
       <c r="B12" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3">
-      <c r="C13" s="24" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2320,7 +2636,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J21"/>
+  <dimension ref="B2:J20"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -2334,7 +2650,7 @@
   <sheetData>
     <row r="2" spans="2:10" ht="25">
       <c r="B2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="19">
@@ -2371,7 +2687,7 @@
     </row>
     <row r="7" spans="2:10" ht="19">
       <c r="C7" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="28"/>
@@ -2383,34 +2699,34 @@
     </row>
     <row r="9" spans="2:10" ht="25">
       <c r="B9" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="25">
       <c r="B10" s="1"/>
       <c r="C10" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="E10" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="F10" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="35" t="s">
+      <c r="G10" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="G10" s="35" t="s">
+      <c r="H10" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="H10" s="35" t="s">
+      <c r="I10" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="I10" s="35" t="s">
+      <c r="J10" s="35" t="s">
         <v>56</v>
-      </c>
-      <c r="J10" s="35" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="19">
@@ -2421,7 +2737,7 @@
         <v>45</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F11" s="32"/>
       <c r="G11" s="30"/>
@@ -2463,7 +2779,7 @@
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F14" s="32"/>
       <c r="G14" s="30"/>
@@ -2491,7 +2807,7 @@
       </c>
       <c r="D16" s="29"/>
       <c r="E16" s="31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F16" s="32"/>
       <c r="G16" s="30"/>
@@ -2519,7 +2835,7 @@
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F18" s="32"/>
       <c r="G18" s="30"/>
@@ -2527,21 +2843,17 @@
       <c r="I18" s="30"/>
       <c r="J18" s="30"/>
     </row>
-    <row r="20" spans="2:10" ht="25">
-      <c r="B20" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10">
-      <c r="C21" s="44" t="s">
-        <v>113</v>
+    <row r="20" spans="2:10" ht="23">
+      <c r="B20" s="69" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2554,9 +2866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:U54"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="X41" sqref="X41"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -2617,7 +2927,7 @@
       <c r="S4" s="5"/>
       <c r="T4" s="19"/>
       <c r="U4" s="36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="2:21">
@@ -3373,9 +3683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:C13"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.33203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -3384,82 +3692,82 @@
   <sheetData>
     <row r="3" spans="2:3" ht="19">
       <c r="B3" s="40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="19">
       <c r="B4" s="40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="19">
       <c r="B5" s="40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="19">
       <c r="B6" s="40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="19">
       <c r="B7" s="40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="19">
       <c r="B8" s="40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="19">
       <c r="B9" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C9" s="41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="19">
       <c r="B10" s="40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="19">
       <c r="B11" s="40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="19">
       <c r="B12" s="40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="19">
@@ -3479,17 +3787,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G34"/>
+  <dimension ref="B2:G56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1640625" customWidth="1"/>
+    <col min="7" max="7" width="58.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="23">
@@ -3504,214 +3810,443 @@
     </row>
     <row r="4" spans="2:7" ht="19">
       <c r="C4" s="43" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="19">
       <c r="C5" s="3"/>
       <c r="E5" s="42" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F5" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="G5" s="42" t="s">
         <v>105</v>
-      </c>
-      <c r="G5" s="42" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="19">
       <c r="C6" s="3"/>
       <c r="E6" s="30" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F6" s="30" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G6" s="30"/>
     </row>
     <row r="7" spans="2:7" ht="19">
       <c r="C7" s="3"/>
       <c r="E7" s="30" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F7" s="30" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G7" s="30"/>
     </row>
     <row r="8" spans="2:7" ht="19">
       <c r="C8" s="3"/>
       <c r="E8" s="30" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G8" s="30"/>
     </row>
     <row r="9" spans="2:7" ht="19">
       <c r="C9" s="43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="19">
       <c r="C10" s="3"/>
       <c r="E10" s="42" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F10" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" s="42" t="s">
         <v>105</v>
-      </c>
-      <c r="G10" s="42" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="19">
       <c r="C11" s="3"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="G11" s="30"/>
+      <c r="E11" s="70" t="s">
+        <v>127</v>
+      </c>
+      <c r="F11" s="70" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" s="70"/>
     </row>
     <row r="12" spans="2:7" ht="19">
       <c r="C12" s="3"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="G12" s="30"/>
+      <c r="E12" s="70" t="s">
+        <v>128</v>
+      </c>
+      <c r="F12" s="70" t="s">
+        <v>118</v>
+      </c>
+      <c r="G12" s="70"/>
     </row>
     <row r="13" spans="2:7" ht="19">
       <c r="C13" s="3"/>
-      <c r="E13" s="30"/>
+      <c r="E13" s="30" t="s">
+        <v>129</v>
+      </c>
       <c r="F13" s="30" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G13" s="30"/>
     </row>
     <row r="14" spans="2:7" ht="19">
       <c r="C14" s="3"/>
-      <c r="E14" s="30"/>
+      <c r="E14" s="30" t="s">
+        <v>133</v>
+      </c>
       <c r="F14" s="30" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G14" s="30"/>
     </row>
     <row r="15" spans="2:7" ht="19">
       <c r="C15" s="3"/>
-      <c r="E15" s="30"/>
+      <c r="E15" s="30" t="s">
+        <v>130</v>
+      </c>
       <c r="F15" s="30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G15" s="30"/>
     </row>
     <row r="16" spans="2:7" ht="19">
       <c r="C16" s="3"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="69" t="s">
-        <v>5</v>
+      <c r="E16" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>108</v>
       </c>
       <c r="G16" s="30"/>
     </row>
     <row r="17" spans="2:7" ht="19">
       <c r="C17" s="3"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="69" t="s">
-        <v>6</v>
+      <c r="E17" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>109</v>
       </c>
       <c r="G17" s="30"/>
     </row>
     <row r="18" spans="2:7" ht="19">
       <c r="C18" s="3"/>
       <c r="E18" s="30"/>
-      <c r="F18" s="69" t="s">
-        <v>7</v>
+      <c r="F18" s="44" t="s">
+        <v>5</v>
       </c>
       <c r="G18" s="30"/>
     </row>
     <row r="19" spans="2:7" ht="19">
       <c r="C19" s="3"/>
       <c r="E19" s="30"/>
-      <c r="F19" s="69" t="s">
-        <v>31</v>
+      <c r="F19" s="44" t="s">
+        <v>6</v>
       </c>
       <c r="G19" s="30"/>
     </row>
     <row r="20" spans="2:7" ht="19">
       <c r="C20" s="3"/>
       <c r="E20" s="30"/>
-      <c r="F20" s="69" t="s">
-        <v>8</v>
+      <c r="F20" s="44" t="s">
+        <v>7</v>
       </c>
       <c r="G20" s="30"/>
     </row>
     <row r="21" spans="2:7" ht="19">
       <c r="C21" s="3"/>
       <c r="E21" s="30"/>
-      <c r="F21" s="69" t="s">
-        <v>17</v>
+      <c r="F21" s="44" t="s">
+        <v>31</v>
       </c>
       <c r="G21" s="30"/>
     </row>
     <row r="22" spans="2:7" ht="19">
       <c r="C22" s="3"/>
       <c r="E22" s="30"/>
-      <c r="F22" s="69" t="s">
-        <v>9</v>
+      <c r="F22" s="44" t="s">
+        <v>8</v>
       </c>
       <c r="G22" s="30"/>
     </row>
     <row r="23" spans="2:7" ht="19">
       <c r="C23" s="3"/>
       <c r="E23" s="30"/>
-      <c r="F23" s="69" t="s">
+      <c r="F23" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="30"/>
+    </row>
+    <row r="24" spans="2:7" ht="19">
+      <c r="C24" s="3"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="30"/>
+    </row>
+    <row r="25" spans="2:7" ht="19">
+      <c r="C25" s="3"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="G23" s="30"/>
-    </row>
-    <row r="26" spans="2:7" ht="23">
-      <c r="B26" s="4" t="s">
+      <c r="G25" s="30"/>
+    </row>
+    <row r="28" spans="2:7" ht="23">
+      <c r="B28" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="27" spans="2:7" ht="19">
-      <c r="C27" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="2:7" ht="19">
-      <c r="C28" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28" s="3"/>
     </row>
     <row r="29" spans="2:7" ht="19">
       <c r="C29" s="43" t="s">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="D29" s="3"/>
     </row>
-    <row r="31" spans="2:7" ht="23">
-      <c r="B31" s="4" t="s">
-        <v>88</v>
+    <row r="30" spans="2:7" ht="19">
+      <c r="C30" s="43" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="19">
+      <c r="C31" s="3"/>
+      <c r="E31" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="F31" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="G31" s="42" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="2:7" ht="19">
-      <c r="C32" s="43" t="s">
+      <c r="C32" s="3"/>
+      <c r="E32" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="F32" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="G32" s="30"/>
+    </row>
+    <row r="33" spans="2:7" ht="19">
+      <c r="C33" s="3"/>
+      <c r="E33" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="F33" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="G33" s="30"/>
+    </row>
+    <row r="34" spans="2:7" ht="19">
+      <c r="C34" s="3"/>
+      <c r="E34" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="F34" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="G34" s="30"/>
+    </row>
+    <row r="35" spans="2:7" ht="19">
+      <c r="C35" s="3"/>
+      <c r="E35" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="F35" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="G35" s="30"/>
+    </row>
+    <row r="36" spans="2:7" ht="19">
+      <c r="C36" s="43" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" ht="19">
+      <c r="C37" s="3"/>
+      <c r="E37" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="F37" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="G37" s="42" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="19">
+      <c r="C38" s="3"/>
+      <c r="E38" s="70" t="s">
+        <v>127</v>
+      </c>
+      <c r="F38" s="70" t="s">
+        <v>117</v>
+      </c>
+      <c r="G38" s="70"/>
+    </row>
+    <row r="39" spans="2:7" ht="19">
+      <c r="C39" s="3"/>
+      <c r="E39" s="70" t="s">
+        <v>126</v>
+      </c>
+      <c r="F39" s="70" t="s">
+        <v>118</v>
+      </c>
+      <c r="G39" s="70"/>
+    </row>
+    <row r="41" spans="2:7" ht="23">
+      <c r="B41" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" ht="19">
+      <c r="C42" s="43" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:3" ht="19">
-      <c r="C33" s="43" t="s">
+    <row r="43" spans="2:7" ht="19">
+      <c r="C43" s="43" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" ht="19">
+      <c r="C44" s="3"/>
+      <c r="E44" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="F44" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="G44" s="42" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" ht="19">
+      <c r="C45" s="3"/>
+      <c r="E45" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="F45" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="G45" s="30"/>
+    </row>
+    <row r="46" spans="2:7" ht="19">
+      <c r="C46" s="3"/>
+      <c r="E46" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="F46" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="G46" s="30"/>
+    </row>
+    <row r="47" spans="2:7" ht="19">
+      <c r="C47" s="43" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="3:3" ht="19">
-      <c r="C34" s="43" t="s">
-        <v>75</v>
-      </c>
+    <row r="48" spans="2:7" ht="19">
+      <c r="C48" s="3"/>
+      <c r="E48" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="F48" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="G48" s="42" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="49" spans="3:7" ht="19">
+      <c r="C49" s="3"/>
+      <c r="E49" s="70" t="s">
+        <v>125</v>
+      </c>
+      <c r="F49" s="70" t="s">
+        <v>117</v>
+      </c>
+      <c r="G49" s="70"/>
+    </row>
+    <row r="50" spans="3:7" ht="19">
+      <c r="C50" s="3"/>
+      <c r="E50" s="70" t="s">
+        <v>126</v>
+      </c>
+      <c r="F50" s="70" t="s">
+        <v>118</v>
+      </c>
+      <c r="G50" s="70"/>
+    </row>
+    <row r="51" spans="3:7" ht="19">
+      <c r="C51" s="3"/>
+      <c r="E51" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="F51" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="G51" s="30" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="52" spans="3:7" ht="19">
+      <c r="C52" s="3"/>
+      <c r="E52" s="71"/>
+      <c r="F52" s="71"/>
+      <c r="G52" s="71"/>
+    </row>
+    <row r="53" spans="3:7" s="71" customFormat="1" ht="19">
+      <c r="C53" s="72" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="54" spans="3:7" ht="19">
+      <c r="C54" s="3"/>
+      <c r="E54" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="F54" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="G54" s="30"/>
+    </row>
+    <row r="55" spans="3:7" ht="19">
+      <c r="C55" s="3"/>
+      <c r="E55" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="F55" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="G55" s="30"/>
+    </row>
+    <row r="56" spans="3:7" ht="19">
+      <c r="C56" s="3"/>
+      <c r="E56" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="F56" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="G56" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3735,7 +4270,7 @@
   <sheetData>
     <row r="2" spans="2:2" ht="25">
       <c r="B2" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
